--- a/صيدليات دكتور مصطفي طلعت_2026-01-12_19-52.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-12_19-52.xlsx
@@ -134,6 +134,9 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
     <t>DIGEST EZE 20 CAPS</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
     <t>INFECTOCURE 500 MG 14 F.C.TABS.</t>
   </si>
   <si>
@@ -272,7 +278,7 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>7767:0</t>
+    <t>7766:0</t>
   </si>
   <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
@@ -1404,17 +1410,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1430,17 +1436,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1456,17 +1462,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1482,17 +1488,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1508,17 +1514,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>62.5</v>
+        <v>38</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1534,17 +1540,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>178.19999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1560,13 +1566,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>-96</v>
+        <v>178.19999999999999</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1586,13 +1592,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>33</v>
+        <v>-96</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1604,7 +1610,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1612,13 +1618,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1638,17 +1644,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>-15</v>
+        <v>74</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1664,17 +1670,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>65</v>
+        <v>-15</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1682,7 +1688,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1690,13 +1696,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>381</v>
+        <v>65</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1722,7 +1728,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>32</v>
+        <v>381</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1742,17 +1748,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>86.5</v>
+        <v>32</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1768,13 +1774,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>78</v>
+        <v>86.5</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1794,13 +1800,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1826,7 +1832,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1846,17 +1852,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1872,17 +1878,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1890,7 +1896,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1898,13 +1904,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1916,7 +1922,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1924,13 +1930,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1942,7 +1948,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1950,17 +1956,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1968,7 +1974,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1976,17 +1982,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1994,7 +2000,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2002,17 +2008,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2020,7 +2026,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2028,13 +2034,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2046,7 +2052,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2054,17 +2060,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2080,17 +2086,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>20.010000000000002</v>
+        <v>76</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2098,7 +2104,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2106,17 +2112,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>56.399999999999999</v>
+        <v>17</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2124,7 +2130,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2132,13 +2138,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>37.600000000000001</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2150,7 +2156,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2158,17 +2164,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>27</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2184,13 +2190,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>42</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2210,17 +2216,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2242,11 +2248,11 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2262,17 +2268,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>67.5</v>
+        <v>25</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2288,17 +2294,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2320,7 +2326,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>675</v>
+        <v>67.5</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2340,17 +2346,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2366,13 +2372,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>2.5</v>
+        <v>675</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2384,7 +2390,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2392,17 +2398,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2410,7 +2416,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2418,17 +2424,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2436,7 +2442,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2444,17 +2450,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2462,7 +2468,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2476,11 +2482,11 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2488,7 +2494,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2496,7 +2502,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -2506,7 +2512,7 @@
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2522,13 +2528,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2548,13 +2554,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2574,13 +2580,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2600,13 +2606,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2618,7 +2624,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2632,11 +2638,11 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2644,7 +2650,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2652,17 +2658,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2678,51 +2684,103 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>54.450000000000003</v>
+        <v>40</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
-      <c r="K73" s="10">
-        <v>4194.8800000000001</v>
-      </c>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-    </row>
-    <row r="74" ht="17.25" customHeight="1">
-      <c t="s" r="A74" s="11">
+      <c r="A73" s="6">
+        <v>70</v>
+      </c>
+      <c t="s" r="B73" s="7">
         <v>103</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c t="s" r="F74" s="12">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c t="s" r="H73" s="8">
+        <v>69</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="9">
+        <v>70</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c t="s" r="N73" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" ht="24.75" customHeight="1">
+      <c r="A74" s="6">
+        <v>71</v>
+      </c>
+      <c t="s" r="B74" s="7">
         <v>104</v>
       </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="13"/>
-      <c t="s" r="I74" s="14">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c t="s" r="H74" s="8">
+        <v>50</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="9">
+        <v>54.450000000000003</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c t="s" r="N74" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" ht="26.25" customHeight="1">
+      <c r="K75" s="10">
+        <v>4300.3800000000001</v>
+      </c>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="11">
         <v>105</v>
       </c>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c t="s" r="F76" s="12">
+        <v>106</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
+      <c t="s" r="I76" s="14">
+        <v>107</v>
+      </c>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="218">
+  <mergeCells count="224">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2937,10 +2995,16 @@
     <mergeCell ref="B72:G72"/>
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="I74:N74"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="I76:N76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
